--- a/dataSources/WSR/TREENA.xlsx
+++ b/dataSources/WSR/TREENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4DC58C-9C12-403A-9D4F-0DFAB6FCF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="73">
   <si>
     <t>Status</t>
   </si>
@@ -255,13 +255,16 @@
   </si>
   <si>
     <t>ETC</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +277,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,7 +2307,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:XFD1"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,8 +2394,8 @@
       <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
+      <c r="X1" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>69</v>
@@ -2863,6 +2874,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3033,15 +3053,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3049,13 +3060,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72E08E2-B511-4B91-83C6-43CF947A89BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15467963-6892-4CD9-A7A8-3B16759AB914}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15467963-6892-4CD9-A7A8-3B16759AB914}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72E08E2-B511-4B91-83C6-43CF947A89BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6ECD08-6474-4402-B590-7EF4C316174E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6ECD08-6474-4402-B590-7EF4C316174E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/TREENA.xlsx
+++ b/dataSources/WSR/TREENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\qaDash\dataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4DC58C-9C12-403A-9D4F-0DFAB6FCF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C332E-20C7-4FE6-8FBC-D589C740ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="72">
   <si>
     <t>Status</t>
   </si>
@@ -255,16 +255,13 @@
   </si>
   <si>
     <t>ETC</t>
-  </si>
-  <si>
-    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,13 +274,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,7 +328,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2307,7 +2296,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="Q1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2394,8 +2383,8 @@
       <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>72</v>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>69</v>
@@ -2874,15 +2863,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -3053,6 +3033,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3060,37 +3049,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15467963-6892-4CD9-A7A8-3B16759AB914}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72E08E2-B511-4B91-83C6-43CF947A89BE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C72E08E2-B511-4B91-83C6-43CF947A89BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15467963-6892-4CD9-A7A8-3B16759AB914}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6ECD08-6474-4402-B590-7EF4C316174E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6ECD08-6474-4402-B590-7EF4C316174E}"/>
 </file>